--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Sfrp1-Fzd2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Sfrp1-Fzd2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Sfrp1</t>
   </si>
   <si>
     <t>Fzd2</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>32.52008666666666</v>
+        <v>0.015775</v>
       </c>
       <c r="H2">
-        <v>97.56026</v>
+        <v>0.047325</v>
       </c>
       <c r="I2">
-        <v>0.9826873631596889</v>
+        <v>0.0004755726158082629</v>
       </c>
       <c r="J2">
-        <v>0.9826873631596887</v>
+        <v>0.0004755726158082628</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.08106100000000001</v>
+        <v>0.1503136666666667</v>
       </c>
       <c r="N2">
-        <v>0.243183</v>
+        <v>0.450941</v>
       </c>
       <c r="O2">
-        <v>0.004404799763312406</v>
+        <v>0.008029526741163598</v>
       </c>
       <c r="P2">
-        <v>0.004404799763312405</v>
+        <v>0.008029526741163598</v>
       </c>
       <c r="Q2">
-        <v>2.636110745286667</v>
+        <v>0.002371198091666667</v>
       </c>
       <c r="R2">
-        <v>23.72499670758</v>
+        <v>0.021340782825</v>
       </c>
       <c r="S2">
-        <v>0.004328541064655889</v>
+        <v>3.818623035997569E-06</v>
       </c>
       <c r="T2">
-        <v>0.004328541064655888</v>
+        <v>3.818623035997568E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>32.52008666666666</v>
+        <v>0.015775</v>
       </c>
       <c r="H3">
-        <v>97.56026</v>
+        <v>0.047325</v>
       </c>
       <c r="I3">
-        <v>0.9826873631596889</v>
+        <v>0.0004755726158082629</v>
       </c>
       <c r="J3">
-        <v>0.9826873631596887</v>
+        <v>0.0004755726158082628</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>47.114695</v>
       </c>
       <c r="O3">
-        <v>0.8533935241547975</v>
+        <v>0.8389317081486641</v>
       </c>
       <c r="P3">
-        <v>0.8533935241547974</v>
+        <v>0.8389317081486641</v>
       </c>
       <c r="Q3">
-        <v>510.7246548911888</v>
+        <v>0.2477447712083333</v>
       </c>
       <c r="R3">
-        <v>4596.5218940207</v>
+        <v>2.229702940875</v>
       </c>
       <c r="S3">
-        <v>0.8386190319892323</v>
+        <v>0.0003989729469287544</v>
       </c>
       <c r="T3">
-        <v>0.838619031989232</v>
+        <v>0.0003989729469287544</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>32.52008666666666</v>
+        <v>0.015775</v>
       </c>
       <c r="H4">
-        <v>97.56026</v>
+        <v>0.047325</v>
       </c>
       <c r="I4">
-        <v>0.9826873631596889</v>
+        <v>0.0004755726158082629</v>
       </c>
       <c r="J4">
-        <v>0.9826873631596887</v>
+        <v>0.0004755726158082628</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.583925666666667</v>
+        <v>2.758466666666667</v>
       </c>
       <c r="N4">
-        <v>7.751777000000001</v>
+        <v>8.275399999999999</v>
       </c>
       <c r="O4">
-        <v>0.1404087682726611</v>
+        <v>0.1473530807662759</v>
       </c>
       <c r="P4">
-        <v>0.1404087682726611</v>
+        <v>0.1473530807662759</v>
       </c>
       <c r="Q4">
-        <v>84.02948662022445</v>
+        <v>0.04351481166666667</v>
       </c>
       <c r="R4">
-        <v>756.26537958202</v>
+        <v>0.391633305</v>
       </c>
       <c r="S4">
-        <v>0.1379779222583611</v>
+        <v>7.007709006742406E-05</v>
       </c>
       <c r="T4">
-        <v>0.1379779222583611</v>
+        <v>7.007709006742406E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>32.52008666666666</v>
+        <v>0.015775</v>
       </c>
       <c r="H5">
-        <v>97.56026</v>
+        <v>0.047325</v>
       </c>
       <c r="I5">
-        <v>0.9826873631596889</v>
+        <v>0.0004755726158082629</v>
       </c>
       <c r="J5">
-        <v>0.9826873631596887</v>
+        <v>0.0004755726158082628</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.03299466666666667</v>
+        <v>0.1064366666666667</v>
       </c>
       <c r="N5">
-        <v>0.09898399999999999</v>
+        <v>0.31931</v>
       </c>
       <c r="O5">
-        <v>0.001792907809228914</v>
+        <v>0.005685684343896315</v>
       </c>
       <c r="P5">
-        <v>0.001792907809228914</v>
+        <v>0.005685684343896314</v>
       </c>
       <c r="Q5">
-        <v>1.072989419537778</v>
+        <v>0.001679038416666667</v>
       </c>
       <c r="R5">
-        <v>9.656904775839999</v>
+        <v>0.01511134575</v>
       </c>
       <c r="S5">
-        <v>0.001761867847439576</v>
+        <v>2.703955776086858E-06</v>
       </c>
       <c r="T5">
-        <v>0.001761867847439576</v>
+        <v>2.703955776086857E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,13 +770,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -785,46 +785,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.5729273333333333</v>
+        <v>32.52008666666666</v>
       </c>
       <c r="H6">
-        <v>1.718782</v>
+        <v>97.56026</v>
       </c>
       <c r="I6">
-        <v>0.01731263684031117</v>
+        <v>0.9803906613234915</v>
       </c>
       <c r="J6">
-        <v>0.01731263684031117</v>
+        <v>0.9803906613234915</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.08106100000000001</v>
+        <v>0.1503136666666667</v>
       </c>
       <c r="N6">
-        <v>0.243183</v>
+        <v>0.450941</v>
       </c>
       <c r="O6">
-        <v>0.004404799763312406</v>
+        <v>0.008029526741163598</v>
       </c>
       <c r="P6">
-        <v>0.004404799763312405</v>
+        <v>0.008029526741163598</v>
       </c>
       <c r="Q6">
-        <v>0.04644206256733334</v>
+        <v>4.888213467184444</v>
       </c>
       <c r="R6">
-        <v>0.417978563106</v>
+        <v>43.99392120466</v>
       </c>
       <c r="S6">
-        <v>7.625869865651629E-05</v>
+        <v>0.007872073031884039</v>
       </c>
       <c r="T6">
-        <v>7.625869865651627E-05</v>
+        <v>0.007872073031884039</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,13 +832,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.5729273333333333</v>
+        <v>32.52008666666666</v>
       </c>
       <c r="H7">
-        <v>1.718782</v>
+        <v>97.56026</v>
       </c>
       <c r="I7">
-        <v>0.01731263684031117</v>
+        <v>0.9803906613234915</v>
       </c>
       <c r="J7">
-        <v>0.01731263684031117</v>
+        <v>0.9803906613234915</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>47.114695</v>
       </c>
       <c r="O7">
-        <v>0.8533935241547975</v>
+        <v>0.8389317081486641</v>
       </c>
       <c r="P7">
-        <v>0.8533935241547974</v>
+        <v>0.8389317081486641</v>
       </c>
       <c r="Q7">
-        <v>8.997765522387777</v>
+        <v>510.7246548911888</v>
       </c>
       <c r="R7">
-        <v>80.97988970148999</v>
+        <v>4596.5218940207</v>
       </c>
       <c r="S7">
-        <v>0.01477449216556533</v>
+        <v>0.8224808121571152</v>
       </c>
       <c r="T7">
-        <v>0.01477449216556533</v>
+        <v>0.8224808121571152</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,14 +894,14 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
       <c r="E8">
         <v>3</v>
       </c>
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.5729273333333333</v>
+        <v>32.52008666666666</v>
       </c>
       <c r="H8">
-        <v>1.718782</v>
+        <v>97.56026</v>
       </c>
       <c r="I8">
-        <v>0.01731263684031117</v>
+        <v>0.9803906613234915</v>
       </c>
       <c r="J8">
-        <v>0.01731263684031117</v>
+        <v>0.9803906613234915</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.583925666666667</v>
+        <v>2.758466666666667</v>
       </c>
       <c r="N8">
-        <v>7.751777000000001</v>
+        <v>8.275399999999999</v>
       </c>
       <c r="O8">
-        <v>0.1404087682726611</v>
+        <v>0.1473530807662759</v>
       </c>
       <c r="P8">
-        <v>0.1404087682726611</v>
+        <v>0.1473530807662759</v>
       </c>
       <c r="Q8">
-        <v>1.480401641734889</v>
+        <v>89.7055750671111</v>
       </c>
       <c r="R8">
-        <v>13.323614775614</v>
+        <v>807.3501756039999</v>
       </c>
       <c r="S8">
-        <v>0.002430846014299987</v>
+        <v>0.1444635843005031</v>
       </c>
       <c r="T8">
-        <v>0.002430846014299987</v>
+        <v>0.1444635843005031</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,557 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>32.52008666666666</v>
+      </c>
+      <c r="H9">
+        <v>97.56026</v>
+      </c>
+      <c r="I9">
+        <v>0.9803906613234915</v>
+      </c>
+      <c r="J9">
+        <v>0.9803906613234915</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.1064366666666667</v>
+      </c>
+      <c r="N9">
+        <v>0.31931</v>
+      </c>
+      <c r="O9">
+        <v>0.005685684343896315</v>
+      </c>
+      <c r="P9">
+        <v>0.005685684343896314</v>
+      </c>
+      <c r="Q9">
+        <v>3.461329624511111</v>
+      </c>
+      <c r="R9">
+        <v>31.1519666206</v>
+      </c>
+      <c r="S9">
+        <v>0.00557419183398913</v>
+      </c>
+      <c r="T9">
+        <v>0.00557419183398913</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.6144993333333333</v>
+      </c>
+      <c r="H10">
+        <v>1.843498</v>
+      </c>
+      <c r="I10">
+        <v>0.01852545517374117</v>
+      </c>
+      <c r="J10">
+        <v>0.01852545517374117</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.1503136666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.450941</v>
+      </c>
+      <c r="O10">
+        <v>0.008029526741163598</v>
+      </c>
+      <c r="P10">
+        <v>0.008029526741163598</v>
+      </c>
+      <c r="Q10">
+        <v>0.09236764795755556</v>
+      </c>
+      <c r="R10">
+        <v>0.831308831618</v>
+      </c>
+      <c r="S10">
+        <v>0.0001487506377097823</v>
+      </c>
+      <c r="T10">
+        <v>0.0001487506377097823</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.6144993333333333</v>
+      </c>
+      <c r="H11">
+        <v>1.843498</v>
+      </c>
+      <c r="I11">
+        <v>0.01852545517374117</v>
+      </c>
+      <c r="J11">
+        <v>0.01852545517374117</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>15.70489833333333</v>
+      </c>
+      <c r="N11">
+        <v>47.114695</v>
+      </c>
+      <c r="O11">
+        <v>0.8389317081486641</v>
+      </c>
+      <c r="P11">
+        <v>0.8389317081486641</v>
+      </c>
+      <c r="Q11">
+        <v>9.65064955590111</v>
+      </c>
+      <c r="R11">
+        <v>86.85584600310999</v>
+      </c>
+      <c r="S11">
+        <v>0.01554159175313819</v>
+      </c>
+      <c r="T11">
+        <v>0.01554159175313819</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.6144993333333333</v>
+      </c>
+      <c r="H12">
+        <v>1.843498</v>
+      </c>
+      <c r="I12">
+        <v>0.01852545517374117</v>
+      </c>
+      <c r="J12">
+        <v>0.01852545517374117</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2.758466666666667</v>
+      </c>
+      <c r="N12">
+        <v>8.275399999999999</v>
+      </c>
+      <c r="O12">
+        <v>0.1473530807662759</v>
+      </c>
+      <c r="P12">
+        <v>0.1473530807662759</v>
+      </c>
+      <c r="Q12">
+        <v>1.695075927688889</v>
+      </c>
+      <c r="R12">
+        <v>15.2556833492</v>
+      </c>
+      <c r="S12">
+        <v>0.002729782892448306</v>
+      </c>
+      <c r="T12">
+        <v>0.002729782892448306</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.6144993333333333</v>
+      </c>
+      <c r="H13">
+        <v>1.843498</v>
+      </c>
+      <c r="I13">
+        <v>0.01852545517374117</v>
+      </c>
+      <c r="J13">
+        <v>0.01852545517374117</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.1064366666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.31931</v>
+      </c>
+      <c r="O13">
+        <v>0.005685684343896315</v>
+      </c>
+      <c r="P13">
+        <v>0.005685684343896314</v>
+      </c>
+      <c r="Q13">
+        <v>0.06540526070888888</v>
+      </c>
+      <c r="R13">
+        <v>0.5886473463799999</v>
+      </c>
+      <c r="S13">
+        <v>0.0001053298904448932</v>
+      </c>
+      <c r="T13">
+        <v>0.0001053298904448931</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.5729273333333333</v>
-      </c>
-      <c r="H9">
-        <v>1.718782</v>
-      </c>
-      <c r="I9">
-        <v>0.01731263684031117</v>
-      </c>
-      <c r="J9">
-        <v>0.01731263684031117</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M9">
-        <v>0.03299466666666667</v>
-      </c>
-      <c r="N9">
-        <v>0.09898399999999999</v>
-      </c>
-      <c r="O9">
-        <v>0.001792907809228914</v>
-      </c>
-      <c r="P9">
-        <v>0.001792907809228914</v>
-      </c>
-      <c r="Q9">
-        <v>0.01890354638755555</v>
-      </c>
-      <c r="R9">
-        <v>0.170131917488</v>
-      </c>
-      <c r="S9">
-        <v>3.10399617893381E-05</v>
-      </c>
-      <c r="T9">
-        <v>3.103996178933809E-05</v>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.020178</v>
+      </c>
+      <c r="H14">
+        <v>0.060534</v>
+      </c>
+      <c r="I14">
+        <v>0.0006083108869590572</v>
+      </c>
+      <c r="J14">
+        <v>0.0006083108869590572</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.1503136666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.450941</v>
+      </c>
+      <c r="O14">
+        <v>0.008029526741163598</v>
+      </c>
+      <c r="P14">
+        <v>0.008029526741163598</v>
+      </c>
+      <c r="Q14">
+        <v>0.003033029166</v>
+      </c>
+      <c r="R14">
+        <v>0.027297262494</v>
+      </c>
+      <c r="S14">
+        <v>4.884448533778697E-06</v>
+      </c>
+      <c r="T14">
+        <v>4.884448533778697E-06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.020178</v>
+      </c>
+      <c r="H15">
+        <v>0.060534</v>
+      </c>
+      <c r="I15">
+        <v>0.0006083108869590572</v>
+      </c>
+      <c r="J15">
+        <v>0.0006083108869590572</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>15.70489833333333</v>
+      </c>
+      <c r="N15">
+        <v>47.114695</v>
+      </c>
+      <c r="O15">
+        <v>0.8389317081486641</v>
+      </c>
+      <c r="P15">
+        <v>0.8389317081486641</v>
+      </c>
+      <c r="Q15">
+        <v>0.31689343857</v>
+      </c>
+      <c r="R15">
+        <v>2.85204094713</v>
+      </c>
+      <c r="S15">
+        <v>0.0005103312914819908</v>
+      </c>
+      <c r="T15">
+        <v>0.0005103312914819908</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.020178</v>
+      </c>
+      <c r="H16">
+        <v>0.060534</v>
+      </c>
+      <c r="I16">
+        <v>0.0006083108869590572</v>
+      </c>
+      <c r="J16">
+        <v>0.0006083108869590572</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>2.758466666666667</v>
+      </c>
+      <c r="N16">
+        <v>8.275399999999999</v>
+      </c>
+      <c r="O16">
+        <v>0.1473530807662759</v>
+      </c>
+      <c r="P16">
+        <v>0.1473530807662759</v>
+      </c>
+      <c r="Q16">
+        <v>0.05566034039999999</v>
+      </c>
+      <c r="R16">
+        <v>0.5009430636</v>
+      </c>
+      <c r="S16">
+        <v>8.963648325708289E-05</v>
+      </c>
+      <c r="T16">
+        <v>8.963648325708289E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.020178</v>
+      </c>
+      <c r="H17">
+        <v>0.060534</v>
+      </c>
+      <c r="I17">
+        <v>0.0006083108869590572</v>
+      </c>
+      <c r="J17">
+        <v>0.0006083108869590572</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.1064366666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.31931</v>
+      </c>
+      <c r="O17">
+        <v>0.005685684343896315</v>
+      </c>
+      <c r="P17">
+        <v>0.005685684343896314</v>
+      </c>
+      <c r="Q17">
+        <v>0.00214767906</v>
+      </c>
+      <c r="R17">
+        <v>0.01932911154</v>
+      </c>
+      <c r="S17">
+        <v>3.458663686204793E-06</v>
+      </c>
+      <c r="T17">
+        <v>3.458663686204792E-06</v>
       </c>
     </row>
   </sheetData>
